--- a/dex_apr2022.xlsx
+++ b/dex_apr2022.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11740"/>
+    <workbookView windowWidth="28060" windowHeight="13940"/>
   </bookViews>
   <sheets>
-    <sheet name="dex" sheetId="1" r:id="rId1"/>
+    <sheet name="download" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -44,12 +44,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +59,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -67,47 +74,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,39 +89,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,24 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +133,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,25 +212,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,6 +260,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,37 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,85 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +406,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +478,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -489,165 +503,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,24 +979,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7890625" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
+    <col min="2" max="2" width="16.5390625" customWidth="1"/>
+    <col min="5" max="5" width="12.6875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1014,7 +1012,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="str">
+      <c r="A2" t="str">
         <f>TEXT(B2,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1035,7 +1033,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="str">
+      <c r="A3" t="str">
         <f>TEXT(B3,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1056,7 +1054,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="str">
+      <c r="A4" t="str">
         <f>TEXT(B4,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1077,7 +1075,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="str">
+      <c r="A5" t="str">
         <f>TEXT(B5,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1098,7 +1096,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" t="str">
         <f>TEXT(B6,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1119,7 +1117,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="str">
+      <c r="A7" t="str">
         <f>TEXT(B7,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1140,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="str">
+      <c r="A8" t="str">
         <f>TEXT(B8,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1161,7 +1159,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="str">
+      <c r="A9" t="str">
         <f>TEXT(B9,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1182,7 +1180,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="str">
+      <c r="A10" t="str">
         <f>TEXT(B10,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1203,7 +1201,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="str">
+      <c r="A11" t="str">
         <f>TEXT(B11,"mmmm")</f>
         <v>December</v>
       </c>
@@ -1224,7 +1222,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="str">
+      <c r="A12" t="str">
         <f>TEXT(B12,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1245,7 +1243,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="str">
+      <c r="A13" t="str">
         <f>TEXT(B13,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1266,7 +1264,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="str">
+      <c r="A14" t="str">
         <f>TEXT(B14,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1287,7 +1285,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="str">
+      <c r="A15" t="str">
         <f>TEXT(B15,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1308,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="str">
+      <c r="A16" t="str">
         <f>TEXT(B16,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1329,7 +1327,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="str">
+      <c r="A17" t="str">
         <f>TEXT(B17,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1350,7 +1348,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="str">
+      <c r="A18" t="str">
         <f>TEXT(B18,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1371,7 +1369,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="str">
+      <c r="A19" t="str">
         <f>TEXT(B19,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1392,7 +1390,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1" t="str">
+      <c r="A20" t="str">
         <f>TEXT(B20,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1413,7 +1411,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="str">
+      <c r="A21" t="str">
         <f>TEXT(B21,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1434,7 +1432,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="str">
+      <c r="A22" t="str">
         <f>TEXT(B22,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1455,7 +1453,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="str">
+      <c r="A23" t="str">
         <f>TEXT(B23,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1476,7 +1474,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="str">
+      <c r="A24" t="str">
         <f>TEXT(B24,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1497,7 +1495,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="str">
+      <c r="A25" t="str">
         <f>TEXT(B25,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1518,7 +1516,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="str">
+      <c r="A26" t="str">
         <f>TEXT(B26,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1539,7 +1537,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="str">
+      <c r="A27" t="str">
         <f>TEXT(B27,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1560,7 +1558,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="str">
+      <c r="A28" t="str">
         <f>TEXT(B28,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1581,7 +1579,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="str">
+      <c r="A29" t="str">
         <f>TEXT(B29,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1602,7 +1600,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1" t="str">
+      <c r="A30" t="str">
         <f>TEXT(B30,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1623,7 +1621,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="str">
+      <c r="A31" t="str">
         <f>TEXT(B31,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1644,7 +1642,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="str">
+      <c r="A32" t="str">
         <f>TEXT(B32,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1665,7 +1663,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="str">
+      <c r="A33" t="str">
         <f>TEXT(B33,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1686,7 +1684,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="str">
+      <c r="A34" t="str">
         <f>TEXT(B34,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1707,7 +1705,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="str">
+      <c r="A35" t="str">
         <f>TEXT(B35,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1728,7 +1726,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1" t="str">
+      <c r="A36" t="str">
         <f>TEXT(B36,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1749,7 +1747,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="str">
+      <c r="A37" t="str">
         <f>TEXT(B37,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1770,7 +1768,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="str">
+      <c r="A38" t="str">
         <f>TEXT(B38,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1791,7 +1789,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1" t="str">
+      <c r="A39" t="str">
         <f>TEXT(B39,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1812,7 +1810,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1" t="str">
+      <c r="A40" t="str">
         <f>TEXT(B40,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1833,7 +1831,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1" t="str">
+      <c r="A41" t="str">
         <f>TEXT(B41,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1854,7 +1852,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="str">
+      <c r="A42" t="str">
         <f>TEXT(B42,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1875,7 +1873,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1" t="str">
+      <c r="A43" t="str">
         <f>TEXT(B43,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1896,7 +1894,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1" t="str">
+      <c r="A44" t="str">
         <f>TEXT(B44,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1917,7 +1915,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1" t="str">
+      <c r="A45" t="str">
         <f>TEXT(B45,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1938,7 +1936,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="str">
+      <c r="A46" t="str">
         <f>TEXT(B46,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1959,7 +1957,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="str">
+      <c r="A47" t="str">
         <f>TEXT(B47,"mmmm")</f>
         <v>January</v>
       </c>
@@ -1980,7 +1978,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1" t="str">
+      <c r="A48" t="str">
         <f>TEXT(B48,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2001,7 +1999,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="str">
+      <c r="A49" t="str">
         <f>TEXT(B49,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2022,7 +2020,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="str">
+      <c r="A50" t="str">
         <f>TEXT(B50,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2043,7 +2041,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1" t="str">
+      <c r="A51" t="str">
         <f>TEXT(B51,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2064,7 +2062,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="str">
+      <c r="A52" t="str">
         <f>TEXT(B52,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2085,7 +2083,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1" t="str">
+      <c r="A53" t="str">
         <f>TEXT(B53,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2106,7 +2104,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="str">
+      <c r="A54" t="str">
         <f>TEXT(B54,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2127,7 +2125,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1" t="str">
+      <c r="A55" t="str">
         <f>TEXT(B55,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2148,7 +2146,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1" t="str">
+      <c r="A56" t="str">
         <f>TEXT(B56,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2169,7 +2167,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1" t="str">
+      <c r="A57" t="str">
         <f>TEXT(B57,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2190,7 +2188,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1" t="str">
+      <c r="A58" t="str">
         <f>TEXT(B58,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2211,7 +2209,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1" t="str">
+      <c r="A59" t="str">
         <f>TEXT(B59,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2232,7 +2230,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="str">
+      <c r="A60" t="str">
         <f>TEXT(B60,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2253,7 +2251,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="str">
+      <c r="A61" t="str">
         <f>TEXT(B61,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2274,7 +2272,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="str">
+      <c r="A62" t="str">
         <f>TEXT(B62,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2295,7 +2293,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1" t="str">
+      <c r="A63" t="str">
         <f>TEXT(B63,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2316,7 +2314,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1" t="str">
+      <c r="A64" t="str">
         <f>TEXT(B64,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2337,7 +2335,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1" t="str">
+      <c r="A65" t="str">
         <f>TEXT(B65,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2358,7 +2356,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1" t="str">
+      <c r="A66" t="str">
         <f>TEXT(B66,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2379,7 +2377,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1" t="str">
+      <c r="A67" t="str">
         <f>TEXT(B67,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2400,7 +2398,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="str">
+      <c r="A68" t="str">
         <f>TEXT(B68,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2421,7 +2419,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="str">
+      <c r="A69" t="str">
         <f>TEXT(B69,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2442,7 +2440,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1" t="str">
+      <c r="A70" t="str">
         <f>TEXT(B70,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2463,7 +2461,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1" t="str">
+      <c r="A71" t="str">
         <f>TEXT(B71,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2484,7 +2482,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="str">
+      <c r="A72" t="str">
         <f>TEXT(B72,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2505,7 +2503,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1" t="str">
+      <c r="A73" t="str">
         <f>TEXT(B73,"mmmm")</f>
         <v>January</v>
       </c>
@@ -2526,7 +2524,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1" t="str">
+      <c r="A74" t="str">
         <f>TEXT(B74,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2547,7 +2545,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="str">
+      <c r="A75" t="str">
         <f>TEXT(B75,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2568,7 +2566,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1" t="str">
+      <c r="A76" t="str">
         <f>TEXT(B76,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2589,7 +2587,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1" t="str">
+      <c r="A77" t="str">
         <f>TEXT(B77,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2610,7 +2608,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1" t="str">
+      <c r="A78" t="str">
         <f>TEXT(B78,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2631,7 +2629,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="str">
+      <c r="A79" t="str">
         <f>TEXT(B79,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2652,7 +2650,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1" t="str">
+      <c r="A80" t="str">
         <f>TEXT(B80,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2673,7 +2671,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1" t="str">
+      <c r="A81" t="str">
         <f>TEXT(B81,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2694,7 +2692,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1" t="str">
+      <c r="A82" t="str">
         <f>TEXT(B82,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2715,7 +2713,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="str">
+      <c r="A83" t="str">
         <f>TEXT(B83,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2736,7 +2734,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1" t="str">
+      <c r="A84" t="str">
         <f>TEXT(B84,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2757,7 +2755,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1" t="str">
+      <c r="A85" t="str">
         <f>TEXT(B85,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2778,7 +2776,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1" t="str">
+      <c r="A86" t="str">
         <f>TEXT(B86,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2799,7 +2797,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1" t="str">
+      <c r="A87" t="str">
         <f>TEXT(B87,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2820,7 +2818,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1" t="str">
+      <c r="A88" t="str">
         <f>TEXT(B88,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2841,7 +2839,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1" t="str">
+      <c r="A89" t="str">
         <f>TEXT(B89,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2862,7 +2860,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1" t="str">
+      <c r="A90" t="str">
         <f>TEXT(B90,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2883,7 +2881,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1" t="str">
+      <c r="A91" t="str">
         <f>TEXT(B91,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2904,7 +2902,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1" t="str">
+      <c r="A92" t="str">
         <f>TEXT(B92,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2925,7 +2923,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="1" t="str">
+      <c r="A93" t="str">
         <f>TEXT(B93,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2946,7 +2944,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="1" t="str">
+      <c r="A94" t="str">
         <f>TEXT(B94,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2967,7 +2965,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="1" t="str">
+      <c r="A95" t="str">
         <f>TEXT(B95,"mmmm")</f>
         <v>February</v>
       </c>
@@ -2988,7 +2986,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="1" t="str">
+      <c r="A96" t="str">
         <f>TEXT(B96,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3009,7 +3007,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="1" t="str">
+      <c r="A97" t="str">
         <f>TEXT(B97,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3030,7 +3028,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1" t="str">
+      <c r="A98" t="str">
         <f>TEXT(B98,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3051,7 +3049,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="1" t="str">
+      <c r="A99" t="str">
         <f>TEXT(B99,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3072,7 +3070,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1" t="str">
+      <c r="A100" t="str">
         <f>TEXT(B100,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3093,7 +3091,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1" t="str">
+      <c r="A101" t="str">
         <f>TEXT(B101,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3114,7 +3112,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1" t="str">
+      <c r="A102" t="str">
         <f>TEXT(B102,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3135,7 +3133,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1" t="str">
+      <c r="A103" t="str">
         <f>TEXT(B103,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3156,7 +3154,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1" t="str">
+      <c r="A104" t="str">
         <f>TEXT(B104,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3177,7 +3175,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="1" t="str">
+      <c r="A105" t="str">
         <f>TEXT(B105,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3198,7 +3196,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="1" t="str">
+      <c r="A106" t="str">
         <f>TEXT(B106,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3219,7 +3217,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="1" t="str">
+      <c r="A107" t="str">
         <f>TEXT(B107,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3240,7 +3238,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="1" t="str">
+      <c r="A108" t="str">
         <f>TEXT(B108,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3261,7 +3259,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1" t="str">
+      <c r="A109" t="str">
         <f>TEXT(B109,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3282,7 +3280,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1" t="str">
+      <c r="A110" t="str">
         <f>TEXT(B110,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3303,7 +3301,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="str">
+      <c r="A111" t="str">
         <f>TEXT(B111,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3324,7 +3322,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1" t="str">
+      <c r="A112" t="str">
         <f>TEXT(B112,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3345,7 +3343,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1" t="str">
+      <c r="A113" t="str">
         <f>TEXT(B113,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3366,7 +3364,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1" t="str">
+      <c r="A114" t="str">
         <f>TEXT(B114,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3387,7 +3385,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1" t="str">
+      <c r="A115" t="str">
         <f>TEXT(B115,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3408,7 +3406,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="1" t="str">
+      <c r="A116" t="str">
         <f>TEXT(B116,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3429,7 +3427,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="1" t="str">
+      <c r="A117" t="str">
         <f>TEXT(B117,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3450,7 +3448,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1" t="str">
+      <c r="A118" t="str">
         <f>TEXT(B118,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3471,7 +3469,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="1" t="str">
+      <c r="A119" t="str">
         <f>TEXT(B119,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3492,7 +3490,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1" t="str">
+      <c r="A120" t="str">
         <f>TEXT(B120,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3513,7 +3511,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="1" t="str">
+      <c r="A121" t="str">
         <f>TEXT(B121,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3534,7 +3532,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="1" t="str">
+      <c r="A122" t="str">
         <f>TEXT(B122,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3555,7 +3553,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="1" t="str">
+      <c r="A123" t="str">
         <f>TEXT(B123,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3576,7 +3574,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1" t="str">
+      <c r="A124" t="str">
         <f>TEXT(B124,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3597,7 +3595,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="1" t="str">
+      <c r="A125" t="str">
         <f>TEXT(B125,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3618,7 +3616,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="1" t="str">
+      <c r="A126" t="str">
         <f>TEXT(B126,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3639,7 +3637,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="1" t="str">
+      <c r="A127" t="str">
         <f>TEXT(B127,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3660,7 +3658,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="1" t="str">
+      <c r="A128" t="str">
         <f>TEXT(B128,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3681,7 +3679,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="1" t="str">
+      <c r="A129" t="str">
         <f>TEXT(B129,"mmmm")</f>
         <v>February</v>
       </c>
@@ -3702,7 +3700,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1" t="str">
+      <c r="A130" t="str">
         <f>TEXT(B130,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3723,7 +3721,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="1" t="str">
+      <c r="A131" t="str">
         <f>TEXT(B131,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3744,7 +3742,7 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1" t="str">
+      <c r="A132" t="str">
         <f>TEXT(B132,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3765,7 +3763,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1" t="str">
+      <c r="A133" t="str">
         <f>TEXT(B133,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3786,7 +3784,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1" t="str">
+      <c r="A134" t="str">
         <f>TEXT(B134,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3807,7 +3805,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="str">
+      <c r="A135" t="str">
         <f>TEXT(B135,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3821,14 +3819,14 @@
         <v>9103</v>
       </c>
       <c r="E135">
-        <v>45778138.8354105</v>
+        <v>45778138.8354106</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1" t="str">
+      <c r="A136" t="str">
         <f>TEXT(B136,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3849,7 +3847,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1" t="str">
+      <c r="A137" t="str">
         <f>TEXT(B137,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3870,7 +3868,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="1" t="str">
+      <c r="A138" t="str">
         <f>TEXT(B138,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3891,7 +3889,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1" t="str">
+      <c r="A139" t="str">
         <f>TEXT(B139,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3912,7 +3910,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1" t="str">
+      <c r="A140" t="str">
         <f>TEXT(B140,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3933,7 +3931,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1" t="str">
+      <c r="A141" t="str">
         <f>TEXT(B141,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3954,7 +3952,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="1" t="str">
+      <c r="A142" t="str">
         <f>TEXT(B142,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3975,7 +3973,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1" t="str">
+      <c r="A143" t="str">
         <f>TEXT(B143,"mmmm")</f>
         <v>March</v>
       </c>
@@ -3996,7 +3994,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="1" t="str">
+      <c r="A144" t="str">
         <f>TEXT(B144,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4017,7 +4015,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1" t="str">
+      <c r="A145" t="str">
         <f>TEXT(B145,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4038,7 +4036,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1" t="str">
+      <c r="A146" t="str">
         <f>TEXT(B146,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4059,7 +4057,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="1" t="str">
+      <c r="A147" t="str">
         <f>TEXT(B147,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4080,7 +4078,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1" t="str">
+      <c r="A148" t="str">
         <f>TEXT(B148,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4101,7 +4099,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="1" t="str">
+      <c r="A149" t="str">
         <f>TEXT(B149,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4122,7 +4120,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1" t="str">
+      <c r="A150" t="str">
         <f>TEXT(B150,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4143,7 +4141,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1" t="str">
+      <c r="A151" t="str">
         <f>TEXT(B151,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4164,7 +4162,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="1" t="str">
+      <c r="A152" t="str">
         <f>TEXT(B152,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4185,7 +4183,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1" t="str">
+      <c r="A153" t="str">
         <f>TEXT(B153,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4206,7 +4204,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1" t="str">
+      <c r="A154" t="str">
         <f>TEXT(B154,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4227,7 +4225,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1" t="str">
+      <c r="A155" t="str">
         <f>TEXT(B155,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4248,7 +4246,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1" t="str">
+      <c r="A156" t="str">
         <f>TEXT(B156,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4269,7 +4267,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1" t="str">
+      <c r="A157" t="str">
         <f>TEXT(B157,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4290,7 +4288,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1" t="str">
+      <c r="A158" t="str">
         <f>TEXT(B158,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4311,7 +4309,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1" t="str">
+      <c r="A159" t="str">
         <f>TEXT(B159,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4332,7 +4330,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1" t="str">
+      <c r="A160" t="str">
         <f>TEXT(B160,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4353,7 +4351,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1" t="str">
+      <c r="A161" t="str">
         <f>TEXT(B161,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4374,7 +4372,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1" t="str">
+      <c r="A162" t="str">
         <f>TEXT(B162,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4395,7 +4393,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1" t="str">
+      <c r="A163" t="str">
         <f>TEXT(B163,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4416,7 +4414,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1" t="str">
+      <c r="A164" t="str">
         <f>TEXT(B164,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4437,7 +4435,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="1" t="str">
+      <c r="A165" t="str">
         <f>TEXT(B165,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4458,7 +4456,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1" t="str">
+      <c r="A166" t="str">
         <f>TEXT(B166,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4479,7 +4477,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="1" t="str">
+      <c r="A167" t="str">
         <f>TEXT(B167,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4500,7 +4498,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="1" t="str">
+      <c r="A168" t="str">
         <f>TEXT(B168,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4521,7 +4519,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="1" t="str">
+      <c r="A169" t="str">
         <f>TEXT(B169,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4542,7 +4540,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="1" t="str">
+      <c r="A170" t="str">
         <f>TEXT(B170,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4563,7 +4561,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="1" t="str">
+      <c r="A171" t="str">
         <f>TEXT(B171,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4584,7 +4582,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1" t="str">
+      <c r="A172" t="str">
         <f>TEXT(B172,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4605,7 +4603,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="1" t="str">
+      <c r="A173" t="str">
         <f>TEXT(B173,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4626,7 +4624,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="1" t="str">
+      <c r="A174" t="str">
         <f>TEXT(B174,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4647,7 +4645,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="1" t="str">
+      <c r="A175" t="str">
         <f>TEXT(B175,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4668,7 +4666,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="1" t="str">
+      <c r="A176" t="str">
         <f>TEXT(B176,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4689,7 +4687,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="1" t="str">
+      <c r="A177" t="str">
         <f>TEXT(B177,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4710,7 +4708,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1" t="str">
+      <c r="A178" t="str">
         <f>TEXT(B178,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4731,7 +4729,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="1" t="str">
+      <c r="A179" t="str">
         <f>TEXT(B179,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4752,7 +4750,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="1" t="str">
+      <c r="A180" t="str">
         <f>TEXT(B180,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4773,7 +4771,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="1" t="str">
+      <c r="A181" t="str">
         <f>TEXT(B181,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4794,7 +4792,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="1" t="str">
+      <c r="A182" t="str">
         <f>TEXT(B182,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4815,7 +4813,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="1" t="str">
+      <c r="A183" t="str">
         <f>TEXT(B183,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4836,7 +4834,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="1" t="str">
+      <c r="A184" t="str">
         <f>TEXT(B184,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4857,7 +4855,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="1" t="str">
+      <c r="A185" t="str">
         <f>TEXT(B185,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4878,7 +4876,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="1" t="str">
+      <c r="A186" t="str">
         <f>TEXT(B186,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4899,7 +4897,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="1" t="str">
+      <c r="A187" t="str">
         <f>TEXT(B187,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4920,7 +4918,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="1" t="str">
+      <c r="A188" t="str">
         <f>TEXT(B188,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4941,7 +4939,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="1" t="str">
+      <c r="A189" t="str">
         <f>TEXT(B189,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4962,7 +4960,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="1" t="str">
+      <c r="A190" t="str">
         <f>TEXT(B190,"mmmm")</f>
         <v>March</v>
       </c>
@@ -4983,7 +4981,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="1" t="str">
+      <c r="A191" t="str">
         <f>TEXT(B191,"mmmm")</f>
         <v>March</v>
       </c>
@@ -5004,7 +5002,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="1" t="str">
+      <c r="A192" t="str">
         <f>TEXT(B192,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5025,7 +5023,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="1" t="str">
+      <c r="A193" t="str">
         <f>TEXT(B193,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5046,7 +5044,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="1" t="str">
+      <c r="A194" t="str">
         <f>TEXT(B194,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5067,7 +5065,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="1" t="str">
+      <c r="A195" t="str">
         <f>TEXT(B195,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5088,7 +5086,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="1" t="str">
+      <c r="A196" t="str">
         <f>TEXT(B196,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5109,7 +5107,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="1" t="str">
+      <c r="A197" t="str">
         <f>TEXT(B197,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5130,7 +5128,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1" t="str">
+      <c r="A198" t="str">
         <f>TEXT(B198,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5151,7 +5149,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="1" t="str">
+      <c r="A199" t="str">
         <f>TEXT(B199,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5172,7 +5170,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="1" t="str">
+      <c r="A200" t="str">
         <f>TEXT(B200,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5193,7 +5191,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1" t="str">
+      <c r="A201" t="str">
         <f>TEXT(B201,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5214,7 +5212,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="1" t="str">
+      <c r="A202" t="str">
         <f>TEXT(B202,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5235,7 +5233,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="1" t="str">
+      <c r="A203" t="str">
         <f>TEXT(B203,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5256,7 +5254,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="1" t="str">
+      <c r="A204" t="str">
         <f>TEXT(B204,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5277,7 +5275,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="1" t="str">
+      <c r="A205" t="str">
         <f>TEXT(B205,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5298,7 +5296,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="1" t="str">
+      <c r="A206" t="str">
         <f>TEXT(B206,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5319,7 +5317,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="1" t="str">
+      <c r="A207" t="str">
         <f>TEXT(B207,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5340,7 +5338,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="1" t="str">
+      <c r="A208" t="str">
         <f>TEXT(B208,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5361,7 +5359,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1" t="str">
+      <c r="A209" t="str">
         <f>TEXT(B209,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5382,7 +5380,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="1" t="str">
+      <c r="A210" t="str">
         <f>TEXT(B210,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5403,7 +5401,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="1" t="str">
+      <c r="A211" t="str">
         <f>TEXT(B211,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5424,7 +5422,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1" t="str">
+      <c r="A212" t="str">
         <f>TEXT(B212,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5445,7 +5443,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="1" t="str">
+      <c r="A213" t="str">
         <f>TEXT(B213,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5466,7 +5464,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1" t="str">
+      <c r="A214" t="str">
         <f>TEXT(B214,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5487,7 +5485,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="1" t="str">
+      <c r="A215" t="str">
         <f>TEXT(B215,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5508,7 +5506,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="1" t="str">
+      <c r="A216" t="str">
         <f>TEXT(B216,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5529,7 +5527,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="1" t="str">
+      <c r="A217" t="str">
         <f>TEXT(B217,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5550,7 +5548,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="1" t="str">
+      <c r="A218" t="str">
         <f>TEXT(B218,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5558,20 +5556,20 @@
         <v>44665</v>
       </c>
       <c r="C218">
-        <v>19615</v>
+        <v>39088</v>
       </c>
       <c r="D218">
-        <v>5589</v>
+        <v>10015</v>
       </c>
       <c r="E218">
-        <v>116847839.091619</v>
+        <v>256744233.008195</v>
       </c>
       <c r="F218" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1" t="str">
+      <c r="A219" t="str">
         <f>TEXT(B219,"mmmm")</f>
         <v>April</v>
       </c>
@@ -5579,20 +5577,272 @@
         <v>44665</v>
       </c>
       <c r="C219">
-        <v>11672</v>
+        <v>21021</v>
       </c>
       <c r="D219">
-        <v>4200</v>
+        <v>7558</v>
       </c>
       <c r="E219">
-        <v>17618503.2523711</v>
+        <v>27212191.2990503</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="str">
+        <f>TEXT(B220,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44666</v>
+      </c>
+      <c r="C220">
+        <v>28300</v>
+      </c>
+      <c r="D220">
+        <v>8479</v>
+      </c>
+      <c r="E220">
+        <v>108773712.757191</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="str">
+        <f>TEXT(B221,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44666</v>
+      </c>
+      <c r="C221">
+        <v>17640</v>
+      </c>
+      <c r="D221">
+        <v>7507</v>
+      </c>
+      <c r="E221">
+        <v>10888258.714751</v>
+      </c>
+      <c r="F221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="str">
+        <f>TEXT(B222,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C222">
+        <v>21841</v>
+      </c>
+      <c r="D222">
+        <v>8444</v>
+      </c>
+      <c r="E222">
+        <v>53903862.1248351</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="str">
+        <f>TEXT(B223,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C223">
+        <v>19433</v>
+      </c>
+      <c r="D223">
+        <v>7645</v>
+      </c>
+      <c r="E223">
+        <v>7111857.70626728</v>
+      </c>
+      <c r="F223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="str">
+        <f>TEXT(B224,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C224">
+        <v>23435</v>
+      </c>
+      <c r="D224">
+        <v>8932</v>
+      </c>
+      <c r="E224">
+        <v>58986336.3770119</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="str">
+        <f>TEXT(B225,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C225">
+        <v>18525</v>
+      </c>
+      <c r="D225">
+        <v>7331</v>
+      </c>
+      <c r="E225">
+        <v>5082489.5658002</v>
+      </c>
+      <c r="F225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="str">
+        <f>TEXT(B226,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44669</v>
+      </c>
+      <c r="C226">
+        <v>45966</v>
+      </c>
+      <c r="D226">
+        <v>12517</v>
+      </c>
+      <c r="E226">
+        <v>264269863.720695</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="str">
+        <f>TEXT(B227,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44669</v>
+      </c>
+      <c r="C227">
+        <v>31804</v>
+      </c>
+      <c r="D227">
+        <v>9935</v>
+      </c>
+      <c r="E227">
+        <v>26510395.7990794</v>
+      </c>
+      <c r="F227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="str">
+        <f>TEXT(B228,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C228">
+        <v>32884</v>
+      </c>
+      <c r="D228">
+        <v>9565</v>
+      </c>
+      <c r="E228">
+        <v>157418333.158913</v>
+      </c>
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="str">
+        <f>TEXT(B229,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C229">
+        <v>20457</v>
+      </c>
+      <c r="D229">
+        <v>7123</v>
+      </c>
+      <c r="E229">
+        <v>12144997.2078369</v>
+      </c>
+      <c r="F229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="str">
+        <f>TEXT(B230,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C230">
+        <v>17274</v>
+      </c>
+      <c r="D230">
+        <v>5342</v>
+      </c>
+      <c r="E230">
+        <v>67478519.4905948</v>
+      </c>
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="str">
+        <f>TEXT(B231,"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C231">
+        <v>10705</v>
+      </c>
+      <c r="D231">
+        <v>4084</v>
+      </c>
+      <c r="E231">
+        <v>7307781.33422045</v>
+      </c>
+      <c r="F231" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F219">
+  <sortState ref="A2:F231">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/dex_apr2022.xlsx
+++ b/dex_apr2022.xlsx
@@ -44,7 +44,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -657,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,12 +983,12 @@
   <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.5390625" customWidth="1"/>
+    <col min="2" max="2" width="16.5390625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6875"/>
   </cols>
   <sheetData>
@@ -995,7 +996,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
